--- a/Template/Шаблон для загрузки логинов в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки логинов в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Логины" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Логины!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Логины!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Дата</t>
   </si>
@@ -43,15 +43,12 @@
   </si>
   <si>
     <t>Логин</t>
-  </si>
-  <si>
-    <t>Тип аутентификации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,52 +437,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Template/Шаблон для загрузки логинов в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки логинов в DirectumRX.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27876" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Логины" sheetId="1" r:id="rId1"/>
@@ -442,23 +442,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
